--- a/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/SCORE_304.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/SCORE_304.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FB3AB6-21DB-4167-B434-3BA2FC40EA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B448A8C8-7A0E-414A-A905-94218606DB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -110,9 +110,6 @@
     <t>นายวรภัทร  ศรีสุวรรณภรณ์</t>
   </si>
   <si>
-    <t>LAB&amp;&amp;WORK (10)</t>
-  </si>
-  <si>
     <t>Quiz01(10)</t>
   </si>
   <si>
@@ -135,12 +132,21 @@
   </si>
   <si>
     <t>นายศิรวิชญ์  พิชญวศิน</t>
+  </si>
+  <si>
+    <t>WORK (5)</t>
+  </si>
+  <si>
+    <t>LAB (5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -303,11 +309,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,15 +343,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -342,32 +389,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,433 +708,568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15" style="19" customWidth="1"/>
-    <col min="3" max="3" width="23.36328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.36328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.90625" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="19"/>
+    <col min="1" max="1" width="5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="14">
+      <c r="D8" s="21">
+        <v>5</v>
+      </c>
+      <c r="E8" s="21">
+        <v>5</v>
+      </c>
+      <c r="F8" s="21">
         <v>6.1</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21">
+        <v>4.5</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="22">
+        <f>SUM(D8:L8)</f>
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="14">
+      <c r="D9" s="21">
+        <v>5</v>
+      </c>
+      <c r="E9" s="21">
+        <v>5</v>
+      </c>
+      <c r="F9" s="21">
         <v>8.9</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21">
+        <v>4.5</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="22">
+        <f t="shared" ref="N9:N17" si="0">SUM(D9:L9)</f>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="14">
+      <c r="D10" s="21">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21">
+        <v>4</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="14">
+      <c r="D11" s="21">
+        <v>4.8</v>
+      </c>
+      <c r="E11" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="21">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21">
+        <v>4.5</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="22">
+        <f t="shared" si="0"/>
+        <v>15.899999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="14">
+      <c r="D12" s="21">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
         <v>3</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21">
+        <v>4</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A13" s="1">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="14">
+      <c r="D13" s="21">
+        <v>5</v>
+      </c>
+      <c r="E13" s="21">
+        <v>5</v>
+      </c>
+      <c r="F13" s="21">
         <v>7.7</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21">
+        <v>4.5</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="22">
+        <f t="shared" si="0"/>
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="14">
+      <c r="D14" s="21">
+        <v>4</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
         <v>3.4</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21">
+        <v>4.5</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="22">
+        <f t="shared" si="0"/>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A15" s="1">
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="14">
+      <c r="D15" s="21">
+        <v>4.8</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21">
+        <v>4</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A16" s="5">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="22">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A16" s="3">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="14">
+      <c r="D16" s="21">
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21">
         <v>2.8</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21">
+        <v>4</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="22">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A17" s="2">
         <v>10</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="14">
+      <c r="D17" s="21">
+        <v>4.8</v>
+      </c>
+      <c r="E17" s="21">
+        <v>5</v>
+      </c>
+      <c r="F17" s="21">
         <v>3.3</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
+        <v>4.5</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A18" s="12"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="16">
-        <f>AVERAGE(E8:E17)</f>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="22">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="7">
+        <f>AVERAGE(F8:F17)</f>
         <v>4.47</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A26" s="12"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="23">
+        <f>AVERAGE(N8:N17)</f>
+        <v>14.560000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A26" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="10">
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:G6"/>
-    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="D5:H6"/>
+    <mergeCell ref="I5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/SCORE_304.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/SCORE_304.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\Teaching work\2025\เทอม_01\ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B448A8C8-7A0E-414A-A905-94218606DB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6AFB28-EB21-4846-A2F2-B1559A35B282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -362,6 +362,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,15 +402,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,144 +711,144 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5" style="9" customWidth="1"/>
     <col min="2" max="2" width="15" style="9" customWidth="1"/>
-    <col min="3" max="3" width="23.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="9"/>
+    <col min="13" max="13" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A4" s="11" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="13" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="10" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
@@ -879,9 +879,9 @@
       <c r="M7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -891,17 +891,19 @@
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="10">
         <v>5</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="10">
         <v>5</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="10">
         <v>6.1</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21">
+      <c r="G8" s="10">
+        <v>17.5</v>
+      </c>
+      <c r="H8" s="10">
         <v>4.5</v>
       </c>
       <c r="I8" s="1"/>
@@ -909,12 +911,12 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="22">
+      <c r="N8" s="11">
         <f>SUM(D8:L8)</f>
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.8">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -924,17 +926,19 @@
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="10">
         <v>5</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="10">
         <v>5</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="10">
         <v>8.9</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21">
+      <c r="G9" s="10">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H9" s="10">
         <v>4.5</v>
       </c>
       <c r="I9" s="1"/>
@@ -942,12 +946,12 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="22">
+      <c r="N9" s="11">
         <f t="shared" ref="N9:N17" si="0">SUM(D9:L9)</f>
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -957,17 +961,19 @@
       <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="10">
         <v>0</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="10">
         <v>1</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21">
+      <c r="G10" s="10">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="H10" s="10">
         <v>4</v>
       </c>
       <c r="I10" s="1"/>
@@ -975,12 +981,12 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="22">
+      <c r="N10" s="11">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.8">
+        <v>8.5250000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -990,17 +996,19 @@
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="10">
         <v>4.8</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="10">
         <v>2.5</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21">
+      <c r="G11" s="10">
+        <v>11.85</v>
+      </c>
+      <c r="H11" s="10">
         <v>4.5</v>
       </c>
       <c r="I11" s="1"/>
@@ -1008,12 +1016,12 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="22">
+      <c r="N11" s="11">
         <f t="shared" si="0"/>
-        <v>15.899999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.8">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -1023,17 +1031,19 @@
       <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="10">
         <v>1</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="10">
         <v>0</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="10">
         <v>3</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21">
+      <c r="G12" s="10">
+        <v>5</v>
+      </c>
+      <c r="H12" s="10">
         <v>4</v>
       </c>
       <c r="I12" s="1"/>
@@ -1041,12 +1051,12 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="22">
+      <c r="N12" s="11">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -1056,17 +1066,19 @@
       <c r="C13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="10">
         <v>5</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="10">
         <v>5</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="10">
         <v>7.7</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21">
+      <c r="G13" s="10">
+        <v>21.324999999999999</v>
+      </c>
+      <c r="H13" s="10">
         <v>4.5</v>
       </c>
       <c r="I13" s="1"/>
@@ -1074,12 +1086,12 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="22">
+      <c r="N13" s="11">
         <f t="shared" si="0"/>
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.8">
+        <v>43.524999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -1089,17 +1101,19 @@
       <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="10">
         <v>4</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="10">
         <v>0</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="10">
         <v>3.4</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21">
+      <c r="G14" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="H14" s="10">
         <v>4.5</v>
       </c>
       <c r="I14" s="1"/>
@@ -1107,12 +1121,12 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="22">
+      <c r="N14" s="11">
         <f t="shared" si="0"/>
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.8">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -1122,17 +1136,19 @@
       <c r="C15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="10">
         <v>4.8</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="10">
         <v>0</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21">
+      <c r="G15" s="10">
+        <v>15.475</v>
+      </c>
+      <c r="H15" s="10">
         <v>4</v>
       </c>
       <c r="I15" s="1"/>
@@ -1140,12 +1156,12 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="22">
+      <c r="N15" s="11">
         <f t="shared" si="0"/>
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.8">
+        <v>28.674999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>9</v>
       </c>
@@ -1155,17 +1171,19 @@
       <c r="C16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="10">
         <v>0</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="10">
         <v>0</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="10">
         <v>2.8</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21">
+      <c r="G16" s="10">
+        <v>4.2249999999999996</v>
+      </c>
+      <c r="H16" s="10">
         <v>4</v>
       </c>
       <c r="I16" s="1"/>
@@ -1173,12 +1191,12 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="22">
+      <c r="N16" s="11">
         <f t="shared" si="0"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.8">
+        <v>11.024999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -1188,17 +1206,19 @@
       <c r="C17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="10">
         <v>4.8</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="10">
         <v>5</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="10">
         <v>3.3</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
+      <c r="G17" s="10">
+        <v>3.625</v>
+      </c>
+      <c r="H17" s="10">
         <v>4.5</v>
       </c>
       <c r="I17" s="1"/>
@@ -1206,12 +1226,12 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="22">
+      <c r="N17" s="11">
         <f t="shared" si="0"/>
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.8">
+        <v>21.225000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1221,40 +1241,43 @@
         <f>AVERAGE(F8:F17)</f>
         <v>4.47</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="7">
+        <f>AVERAGE(G8:G17)</f>
+        <v>11.262499999999999</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="23">
+      <c r="N18" s="12">
         <f>AVERAGE(N8:N17)</f>
-        <v>14.560000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.8">
+        <v>25.822500000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.8">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.8">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.8">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.8">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.8">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.8">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.8">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4"/>
     </row>
   </sheetData>
